--- a/src/Evals/data/input_data/beef_cuts.xlsx
+++ b/src/Evals/data/input_data/beef_cuts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billnewman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billnewman/Desktop/GitHub/Cluster_AI/data/incoming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA07F57-A07D-1C41-82C1-3143057751E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92C8F0-B9D0-EC4E-AC4C-DCB702BCF108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="182">
   <si>
     <t>Sub-primal</t>
   </si>
@@ -160,21 +160,9 @@
     <t>Wagyu, Kobe Beef, A5 (JP scale)</t>
   </si>
   <si>
-    <t>Choice, Ch, Canada AAA, AAA</t>
-  </si>
-  <si>
     <t>Prime, Pr, Canadian Prime</t>
   </si>
   <si>
-    <t>Select, Sel, Canada AA, AA</t>
-  </si>
-  <si>
-    <t>Standard, Std, Canada A, A</t>
-  </si>
-  <si>
-    <t>Utility, Ut, B4 (bulls), Canad Utility, B grades</t>
-  </si>
-  <si>
     <t>Certified Angus Beef</t>
   </si>
   <si>
@@ -568,9 +556,6 @@
     <t>Pre-cut Fajita Beef</t>
   </si>
   <si>
-    <t>aka Ball tip 2/up or 2/dn</t>
-  </si>
-  <si>
     <t>a shell is a bone in striploin</t>
   </si>
   <si>
@@ -584,6 +569,39 @@
   </si>
   <si>
     <t>Sirloin Tip Roast (sirloin), Ball tip 2/up, or 2/dn</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Choice, Ch</t>
+  </si>
+  <si>
+    <t>Canada AAA, AAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select, Sel, </t>
+  </si>
+  <si>
+    <t>Canada AA, AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard, Std, </t>
+  </si>
+  <si>
+    <t>Canada A, A</t>
+  </si>
+  <si>
+    <t>Hereford</t>
+  </si>
+  <si>
+    <t>Utility, Ut, B4 (bulls), B grades</t>
   </si>
 </sst>
 </file>
@@ -670,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -684,7 +702,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B7491-B904-0943-99A3-71255300AAE5}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1026,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1034,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1042,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1058,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1079,38 +1096,71 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1138,34 +1188,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1197,138 +1247,138 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1360,34 +1410,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1423,50 +1473,50 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1500,42 +1550,42 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1575,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1583,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1591,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1599,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1607,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1615,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1623,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1631,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1639,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1647,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1655,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1663,15 +1713,15 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>172</v>
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1710,19 +1760,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1785,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1754,73 +1804,71 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>170</v>
-      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1853,44 +1901,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1924,34 +1972,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1983,42 +2031,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
